--- a/combined/Rumah_Sakit.xlsx
+++ b/combined/Rumah_Sakit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\google-maps-scraper\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\google-maps-scraper\combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,127 +1986,127 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="E2">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="F2">
-        <v>-7.8249680000000001</v>
+        <v>-7.9618399999999996</v>
       </c>
       <c r="G2">
-        <v>110.37786699999999</v>
+        <v>110.602918</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="E3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F3">
-        <v>-7.7855730000000003</v>
+        <v>-7.9559150000000001</v>
       </c>
       <c r="G3">
-        <v>110.37682700000001</v>
+        <v>110.29307300000001</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E4">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="F4">
-        <v>-7.7832660000000002</v>
+        <v>-7.9326220000000003</v>
       </c>
       <c r="G4">
-        <v>110.37821599999999</v>
+        <v>110.34518</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="E5">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="F5">
-        <v>-7.792548</v>
+        <v>-7.9256589999999996</v>
       </c>
       <c r="G5">
-        <v>110.353008</v>
+        <v>110.31838999999999</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -2114,1113 +2114,960 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="F6">
-        <v>-7.8385920000000002</v>
+        <v>-7.909332</v>
       </c>
       <c r="G6">
-        <v>110.365827</v>
+        <v>110.29588699999999</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7">
-        <v>3.8</v>
+        <v>503</v>
       </c>
       <c r="F7">
-        <v>-7.7686159999999997</v>
+        <v>-7.906765</v>
       </c>
       <c r="G7">
-        <v>110.373474</v>
+        <v>110.319002</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E8">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="F8">
-        <v>-7.7996489999999996</v>
+        <v>-7.9055479999999996</v>
       </c>
       <c r="G8">
-        <v>110.351719</v>
+        <v>110.32056799999999</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
       <c r="E9">
-        <v>4.0999999999999996</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>-7.7625840000000004</v>
+        <v>-7.8948780000000003</v>
       </c>
       <c r="G9">
-        <v>110.33676</v>
+        <v>110.350206</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>424</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
       <c r="E10">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>-7.909332</v>
+        <v>-7.8933790000000004</v>
       </c>
       <c r="G10">
-        <v>110.29588699999999</v>
+        <v>110.33867600000001</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>421</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
+        <v>465</v>
       </c>
       <c r="E11">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F11">
-        <v>-7.8228759999999999</v>
+        <v>-7.8930959999999999</v>
       </c>
       <c r="G11">
-        <v>110.400763</v>
+        <v>110.33879</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>466</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="E12">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="F12">
-        <v>-7.7834260000000004</v>
+        <v>-7.8927870000000002</v>
       </c>
       <c r="G12">
-        <v>110.390878</v>
+        <v>110.337782</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
+        <v>386</v>
       </c>
       <c r="E13">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>-7.8341599999999998</v>
+        <v>-7.8922549999999996</v>
       </c>
       <c r="G13">
-        <v>110.36038600000001</v>
+        <v>110.337855</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14">
-        <v>3.6</v>
+        <v>518</v>
       </c>
       <c r="F14">
-        <v>-7.7142369999999998</v>
+        <v>-7.8918980000000003</v>
       </c>
       <c r="G14">
-        <v>110.44814</v>
+        <v>110.338244</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="E15">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F15">
-        <v>-7.9326220000000003</v>
+        <v>-7.8868980000000004</v>
       </c>
       <c r="G15">
-        <v>110.34518</v>
+        <v>110.330213</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="E16">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F16">
-        <v>-7.7575570000000003</v>
+        <v>-7.8862389999999998</v>
       </c>
       <c r="G16">
-        <v>110.403572</v>
+        <v>110.388015</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
+        <v>474</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17">
-        <v>4.4000000000000004</v>
+        <v>475</v>
       </c>
       <c r="F17">
-        <v>-7.801139</v>
+        <v>-7.8846109999999996</v>
       </c>
       <c r="G17">
-        <v>110.362256</v>
+        <v>110.33411099999999</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" t="s">
-        <v>100</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
+        <v>375</v>
       </c>
       <c r="E18">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>-7.9055479999999996</v>
+        <v>-7.8753849999999996</v>
       </c>
       <c r="G18">
-        <v>110.32056799999999</v>
+        <v>110.426209</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>376</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19">
-        <v>4.5</v>
+        <v>459</v>
       </c>
       <c r="F19">
-        <v>-7.7968479999999998</v>
+        <v>-7.8753849999999996</v>
       </c>
       <c r="G19">
-        <v>110.373175</v>
+        <v>110.426209</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" t="s">
-        <v>111</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>481</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
+        <v>482</v>
       </c>
       <c r="E20">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F20">
-        <v>-7.7807880000000003</v>
+        <v>-7.8740119999999996</v>
       </c>
       <c r="G20">
-        <v>110.375</v>
+        <v>110.374437</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>483</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E21">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="F21">
-        <v>-7.6868790000000002</v>
+        <v>-7.8656379999999997</v>
       </c>
       <c r="G21">
-        <v>110.341898</v>
+        <v>110.408148</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>389</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" t="s">
-        <v>124</v>
+        <v>390</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>391</v>
       </c>
       <c r="E22">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F22">
-        <v>-7.8927870000000002</v>
+        <v>-7.8534509999999997</v>
       </c>
       <c r="G22">
-        <v>110.337782</v>
+        <v>110.49209</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>392</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="E23">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>-7.9559150000000001</v>
+        <v>-7.8488559999999996</v>
       </c>
       <c r="G23">
-        <v>110.29307300000001</v>
+        <v>110.41030600000001</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="E24">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F24">
-        <v>-7.7547750000000004</v>
+        <v>-7.8432209999999998</v>
       </c>
       <c r="G24">
-        <v>110.242617</v>
+        <v>110.389888</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>444</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>446</v>
       </c>
       <c r="E25">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="F25">
-        <v>-7.8656379999999997</v>
+        <v>-7.8390399999999998</v>
       </c>
       <c r="G25">
-        <v>110.408148</v>
+        <v>110.33489400000001</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>447</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>416</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="E26">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>-7.7471319999999997</v>
+        <v>-7.8388369999999998</v>
       </c>
       <c r="G26">
-        <v>110.42507500000001</v>
+        <v>110.36550099999999</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>418</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="E27">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="F27">
-        <v>-7.7544329999999997</v>
+        <v>-7.8385920000000002</v>
       </c>
       <c r="G27">
-        <v>110.405745</v>
+        <v>110.365827</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="E28">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="F28">
-        <v>-7.7438250000000002</v>
+        <v>-7.8383479999999999</v>
       </c>
       <c r="G28">
-        <v>110.350286</v>
+        <v>110.364988</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>495</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
+        <v>496</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>497</v>
       </c>
       <c r="E29">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>-7.7772370000000004</v>
+        <v>-7.8366420000000003</v>
       </c>
       <c r="G29">
-        <v>110.376169</v>
+        <v>110.474355</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>498</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="E30">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="F30">
-        <v>-7.8432209999999998</v>
+        <v>-7.8341599999999998</v>
       </c>
       <c r="G30">
-        <v>110.389888</v>
+        <v>110.36038600000001</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" t="s">
-        <v>168</v>
+        <v>439</v>
       </c>
       <c r="E31">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>-7.7976890000000001</v>
+        <v>-7.8313600000000001</v>
       </c>
       <c r="G31">
-        <v>110.410336</v>
+        <v>110.458585</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>169</v>
+        <v>440</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="F32">
-        <v>-7.7702540000000004</v>
+        <v>-7.8263199999999999</v>
       </c>
       <c r="G32">
-        <v>110.432773</v>
+        <v>110.378573</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>505</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
+        <v>506</v>
       </c>
       <c r="F33">
-        <v>-7.7709609999999998</v>
+        <v>-7.8261219999999998</v>
       </c>
       <c r="G33">
-        <v>110.41579</v>
+        <v>110.377416</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" t="s">
-        <v>77</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" t="s">
-        <v>184</v>
+        <v>383</v>
       </c>
       <c r="E34">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="F34">
-        <v>-7.9618399999999996</v>
+        <v>-7.8252090000000001</v>
       </c>
       <c r="G34">
-        <v>110.602918</v>
+        <v>110.37788500000001</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>384</v>
       </c>
       <c r="J34" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>396</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" t="s">
-        <v>190</v>
+        <v>397</v>
       </c>
       <c r="E35">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>-7.80464</v>
+        <v>-7.8251929999999996</v>
       </c>
       <c r="G35">
-        <v>110.483153</v>
+        <v>110.37826200000001</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>398</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" t="s">
-        <v>195</v>
+        <v>372</v>
       </c>
       <c r="E36">
         <v>4.5</v>
       </c>
       <c r="F36">
-        <v>-7.7766510000000002</v>
+        <v>-7.8251650000000001</v>
       </c>
       <c r="G36">
-        <v>110.459023</v>
+        <v>110.378131</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>196</v>
+        <v>373</v>
       </c>
       <c r="J36" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="F37">
-        <v>-7.7939670000000003</v>
+        <v>-7.8251379999999999</v>
       </c>
       <c r="G37">
-        <v>110.391921</v>
+        <v>110.378626</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
-      </c>
-      <c r="C38" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="E38">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>-7.7662120000000003</v>
+        <v>-7.8250890000000002</v>
       </c>
       <c r="G38">
-        <v>110.471824</v>
+        <v>110.37779</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="F39">
-        <v>-7.8488559999999996</v>
+        <v>-7.825005</v>
       </c>
       <c r="G39">
-        <v>110.41030600000001</v>
+        <v>110.377863</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F40">
-        <v>-7.803617</v>
+        <v>-7.8249680000000001</v>
       </c>
       <c r="G40">
-        <v>110.35652899999999</v>
+        <v>110.37786699999999</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
@@ -3228,310 +3075,295 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="E41">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="F41">
-        <v>-7.8862389999999998</v>
+        <v>-7.8228759999999999</v>
       </c>
       <c r="G41">
-        <v>110.388015</v>
+        <v>110.400763</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="J41" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="E42">
         <v>4.2</v>
       </c>
       <c r="F42">
-        <v>-7.7721600000000004</v>
+        <v>-7.8203849999999999</v>
       </c>
       <c r="G42">
-        <v>110.466759</v>
+        <v>110.399794</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="J42" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" t="s">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="E43">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="F43">
-        <v>-7.6616309999999999</v>
+        <v>-7.8171359999999996</v>
       </c>
       <c r="G43">
-        <v>110.421116</v>
+        <v>110.387585</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="J43" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>351</v>
+      </c>
+      <c r="C44" t="s">
+        <v>352</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="E44">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>-7.8074459999999997</v>
+        <v>-7.815836</v>
       </c>
       <c r="G44">
-        <v>110.346369</v>
+        <v>110.373796</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="J44" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>477</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" t="s">
-        <v>241</v>
+        <v>478</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="E45">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="F45">
-        <v>-7.9256589999999996</v>
+        <v>-7.8148790000000004</v>
       </c>
       <c r="G45">
-        <v>110.31838999999999</v>
+        <v>110.469365</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="E46">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>-7.7996080000000001</v>
+        <v>-7.8148289999999996</v>
       </c>
       <c r="G46">
-        <v>110.351895</v>
+        <v>110.381597</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="J46" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>310</v>
+      </c>
+      <c r="C47" t="s">
+        <v>311</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="E47">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F47">
-        <v>-7.8203849999999999</v>
+        <v>-7.8130050000000004</v>
       </c>
       <c r="G47">
-        <v>110.399794</v>
+        <v>110.358844</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>425</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" t="s">
-        <v>254</v>
+        <v>426</v>
       </c>
       <c r="E48">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="F48">
-        <v>-7.7982319999999996</v>
+        <v>-7.8111990000000002</v>
       </c>
       <c r="G48">
-        <v>110.34504200000001</v>
+        <v>110.401938</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="J48" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="D49" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="E49">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F49">
-        <v>-7.7998690000000002</v>
+        <v>-7.8103499999999997</v>
       </c>
       <c r="G49">
-        <v>110.351777</v>
+        <v>110.40854</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="J49" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
+        <v>462</v>
       </c>
       <c r="E50">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="F50">
-        <v>-7.825005</v>
+        <v>-7.8086279999999997</v>
       </c>
       <c r="G50">
-        <v>110.377863</v>
+        <v>110.34996</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>263</v>
+        <v>463</v>
       </c>
       <c r="J50" t="s">
         <v>264</v>
@@ -3539,367 +3371,382 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>432</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>433</v>
+      </c>
+      <c r="C51" t="s">
+        <v>434</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>435</v>
       </c>
       <c r="E51">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="F51">
-        <v>-7.7854619999999999</v>
+        <v>-7.807455</v>
       </c>
       <c r="G51">
-        <v>110.34834600000001</v>
+        <v>110.36935099999999</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E52">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F52">
-        <v>-7.806972</v>
+        <v>-7.8074459999999997</v>
       </c>
       <c r="G52">
-        <v>110.41211800000001</v>
+        <v>110.346369</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="J52" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E53">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F53">
-        <v>-7.8868980000000004</v>
+        <v>-7.806972</v>
       </c>
       <c r="G53">
-        <v>110.330213</v>
+        <v>110.41211800000001</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>188</v>
+      </c>
+      <c r="C54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" t="s">
+        <v>190</v>
       </c>
       <c r="E54">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F54">
-        <v>-7.7968130000000002</v>
+        <v>-7.80464</v>
       </c>
       <c r="G54">
-        <v>110.37325300000001</v>
+        <v>110.483153</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="J54" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>470</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" t="s">
-        <v>282</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
+        <v>471</v>
       </c>
       <c r="F55">
-        <v>-7.7840410000000002</v>
+        <v>-7.8036589999999997</v>
       </c>
       <c r="G55">
-        <v>110.390646</v>
+        <v>110.348017</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>283</v>
-      </c>
-      <c r="J55" t="s">
-        <v>284</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>215</v>
+      </c>
+      <c r="D56" t="s">
+        <v>216</v>
       </c>
       <c r="E56">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="F56">
-        <v>-7.770086</v>
+        <v>-7.803617</v>
       </c>
       <c r="G56">
-        <v>110.371748</v>
+        <v>110.35652899999999</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="J56" t="s">
-        <v>288</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>484</v>
       </c>
       <c r="B57" t="s">
-        <v>290</v>
-      </c>
-      <c r="C57" t="s">
-        <v>97</v>
+        <v>485</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57">
-        <v>3.8</v>
+        <v>486</v>
       </c>
       <c r="F57">
-        <v>-7.8003629999999999</v>
+        <v>-7.8021599999999998</v>
       </c>
       <c r="G57">
-        <v>110.361884</v>
+        <v>110.389697</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>291</v>
-      </c>
-      <c r="J57" t="s">
-        <v>292</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
       </c>
       <c r="E58">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F58">
-        <v>-7.8263199999999999</v>
+        <v>-7.801139</v>
       </c>
       <c r="G58">
-        <v>110.378573</v>
+        <v>110.362256</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="J58" t="s">
-        <v>295</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>449</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="E59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>-7.8251379999999999</v>
+        <v>-7.8009950000000003</v>
       </c>
       <c r="G59">
-        <v>110.378626</v>
+        <v>110.39178200000001</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>297</v>
+        <v>451</v>
       </c>
       <c r="J59" t="s">
-        <v>298</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
-        <v>300</v>
+        <v>290</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
       </c>
       <c r="E60">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="F60">
-        <v>-7.8003030000000004</v>
+        <v>-7.8003629999999999</v>
       </c>
       <c r="G60">
-        <v>110.39764099999999</v>
+        <v>110.361884</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J60" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
-      </c>
-      <c r="D61" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="F61">
-        <v>-7.8148289999999996</v>
+        <v>-7.8003030000000004</v>
       </c>
       <c r="G61">
-        <v>110.381597</v>
+        <v>110.39764099999999</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J61" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62">
+        <v>4.8</v>
       </c>
       <c r="F62">
-        <v>-7.7844620000000004</v>
+        <v>-7.7998690000000002</v>
       </c>
       <c r="G62">
-        <v>110.380757</v>
+        <v>110.351777</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>308</v>
+        <v>260</v>
+      </c>
+      <c r="J62" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>48</v>
       </c>
       <c r="E63">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="F63">
-        <v>-7.8130050000000004</v>
+        <v>-7.7996489999999996</v>
       </c>
       <c r="G63">
-        <v>110.358844</v>
+        <v>110.351719</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c r="J63" t="s">
         <v>15</v>
@@ -3907,112 +3754,112 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="D64" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F64">
-        <v>-7.7628579999999996</v>
+        <v>-7.7996080000000001</v>
       </c>
       <c r="G64">
-        <v>110.434479</v>
+        <v>110.351895</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="J64" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>-7.7974940000000004</v>
+        <v>-7.7990060000000003</v>
       </c>
       <c r="G65">
-        <v>110.412328</v>
+        <v>110.35204899999999</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>322</v>
+        <v>469</v>
       </c>
       <c r="J65" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>253</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="E66">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="F66">
-        <v>-7.7714420000000004</v>
+        <v>-7.7982319999999996</v>
       </c>
       <c r="G66">
-        <v>110.415705</v>
+        <v>110.34504200000001</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="J66" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F67">
-        <v>-7.8250890000000002</v>
+        <v>-7.7978500000000004</v>
       </c>
       <c r="G67">
-        <v>110.37779</v>
+        <v>110.37609999999999</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="J67" t="s">
         <v>284</v>
@@ -4020,353 +3867,353 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>331</v>
+        <v>166</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" t="s">
+        <v>168</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F68">
-        <v>-7.7972640000000002</v>
+        <v>-7.7976890000000001</v>
       </c>
       <c r="G68">
-        <v>110.411738</v>
+        <v>110.410336</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="J68" t="s">
-        <v>333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B69" t="s">
-        <v>335</v>
-      </c>
-      <c r="D69" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E69">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>-7.7833550000000002</v>
+        <v>-7.7974940000000004</v>
       </c>
       <c r="G69">
-        <v>110.378507</v>
+        <v>110.412328</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="J69" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
-      </c>
-      <c r="C70" t="s">
-        <v>341</v>
-      </c>
-      <c r="D70" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E70">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="F70">
-        <v>-7.536124</v>
+        <v>-7.7972640000000002</v>
       </c>
       <c r="G70">
-        <v>110.234121</v>
+        <v>110.411738</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J70" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>345</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>346</v>
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F71">
-        <v>-7.76816</v>
+        <v>-7.7968479999999998</v>
       </c>
       <c r="G71">
-        <v>110.38359199999999</v>
+        <v>110.373175</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>348</v>
+        <v>110</v>
       </c>
       <c r="J71" t="s">
-        <v>349</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>351</v>
-      </c>
-      <c r="C72" t="s">
-        <v>352</v>
-      </c>
-      <c r="D72" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F72">
-        <v>-7.815836</v>
+        <v>-7.7968130000000002</v>
       </c>
       <c r="G72">
-        <v>110.373796</v>
+        <v>110.37325300000001</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="J72" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="E73">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>-7.7837170000000002</v>
+        <v>-7.7962740000000004</v>
       </c>
       <c r="G73">
-        <v>110.37807599999999</v>
+        <v>110.37373100000001</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="J73" t="s">
-        <v>256</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>358</v>
+        <v>198</v>
       </c>
       <c r="B74" t="s">
-        <v>359</v>
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="D74" t="s">
-        <v>361</v>
+        <v>201</v>
       </c>
       <c r="E74">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F74">
-        <v>-7.8103499999999997</v>
+        <v>-7.7939670000000003</v>
       </c>
       <c r="G74">
-        <v>110.40854</v>
+        <v>110.391921</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>362</v>
+        <v>202</v>
       </c>
       <c r="J74" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>363</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="F75">
-        <v>-7.7835999999999999</v>
+        <v>-7.792548</v>
       </c>
       <c r="G75">
-        <v>110.37802499999999</v>
+        <v>110.353008</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>365</v>
+        <v>32</v>
       </c>
       <c r="J75" t="s">
-        <v>295</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>401</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76">
-        <v>5</v>
+        <v>403</v>
       </c>
       <c r="F76">
-        <v>-7.7837519999999998</v>
+        <v>-7.7911900000000003</v>
       </c>
       <c r="G76">
-        <v>110.376774</v>
+        <v>110.362026</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>367</v>
-      </c>
-      <c r="J76" t="s">
-        <v>256</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>429</v>
+      </c>
+      <c r="D77" t="s">
+        <v>430</v>
       </c>
       <c r="E77">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F77">
-        <v>-7.7978500000000004</v>
+        <v>-7.7889470000000003</v>
       </c>
       <c r="G77">
-        <v>110.37609999999999</v>
+        <v>110.48254</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="J77" t="s">
-        <v>284</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>371</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>372</v>
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
       </c>
       <c r="E78">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F78">
-        <v>-7.8251650000000001</v>
+        <v>-7.7855730000000003</v>
       </c>
       <c r="G78">
-        <v>110.378131</v>
+        <v>110.37682700000001</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="J78" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>374</v>
+        <v>265</v>
       </c>
       <c r="B79" t="s">
-        <v>375</v>
+        <v>266</v>
+      </c>
+      <c r="D79" t="s">
+        <v>267</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="F79">
-        <v>-7.8753849999999996</v>
+        <v>-7.7854619999999999</v>
       </c>
       <c r="G79">
-        <v>110.426209</v>
+        <v>110.34834600000001</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
       <c r="J79" t="s">
         <v>15</v>
@@ -4374,54 +4221,51 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>377</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
-      </c>
-      <c r="D80" t="s">
-        <v>379</v>
-      </c>
-      <c r="E80">
-        <v>4.8</v>
+        <v>307</v>
       </c>
       <c r="F80">
-        <v>-7.8171359999999996</v>
+        <v>-7.7844620000000004</v>
       </c>
       <c r="G80">
-        <v>110.387585</v>
+        <v>110.380757</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>380</v>
-      </c>
-      <c r="J80" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" t="s">
+        <v>282</v>
       </c>
       <c r="E81">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>-7.8252090000000001</v>
+        <v>-7.7840410000000002</v>
       </c>
       <c r="G81">
-        <v>110.37788500000001</v>
+        <v>110.390646</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="J81" t="s">
         <v>284</v>
@@ -4429,806 +4273,899 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>-7.8922549999999996</v>
+        <v>-7.7837519999999998</v>
       </c>
       <c r="G82">
-        <v>110.337855</v>
+        <v>110.376774</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="J82" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>356</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>391</v>
+        <v>25</v>
       </c>
       <c r="E83">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F83">
-        <v>-7.8534509999999997</v>
+        <v>-7.7837170000000002</v>
       </c>
       <c r="G83">
-        <v>110.49209</v>
+        <v>110.37807599999999</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="J83" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="B84" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
       </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
       <c r="E84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>-7.7833560000000004</v>
+        <v>-7.7835999999999999</v>
       </c>
       <c r="G84">
-        <v>110.377539</v>
+        <v>110.37802499999999</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="J84" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="B85" t="s">
-        <v>397</v>
-      </c>
-      <c r="E85">
-        <v>4</v>
+        <v>364</v>
       </c>
       <c r="F85">
-        <v>-7.8251929999999996</v>
+        <v>-7.7835320000000001</v>
       </c>
       <c r="G85">
-        <v>110.37826200000001</v>
+        <v>110.37688799999999</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>398</v>
-      </c>
-      <c r="J85" t="s">
-        <v>399</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>402</v>
+        <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>403</v>
+        <v>70</v>
+      </c>
+      <c r="E86">
+        <v>4.7</v>
       </c>
       <c r="F86">
-        <v>-7.7911900000000003</v>
+        <v>-7.7834260000000004</v>
       </c>
       <c r="G86">
-        <v>110.362026</v>
+        <v>110.390878</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>404</v>
+        <v>71</v>
+      </c>
+      <c r="J86" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B87" t="s">
-        <v>406</v>
+        <v>394</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>-7.7769510000000004</v>
+        <v>-7.7833560000000004</v>
       </c>
       <c r="G87">
-        <v>110.39887899999999</v>
+        <v>110.377539</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>407</v>
+        <v>395</v>
+      </c>
+      <c r="J87" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>408</v>
+        <v>334</v>
       </c>
       <c r="B88" t="s">
-        <v>409</v>
-      </c>
-      <c r="C88" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="F88">
-        <v>-7.7962740000000004</v>
+        <v>-7.7833550000000002</v>
       </c>
       <c r="G88">
-        <v>110.37373100000001</v>
+        <v>110.378507</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="J88" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>413</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>414</v>
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E89">
-        <v>3.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F89">
-        <v>-7.8383479999999999</v>
+        <v>-7.7832660000000002</v>
       </c>
       <c r="G89">
-        <v>110.364988</v>
+        <v>110.37821599999999</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>415</v>
+        <v>26</v>
       </c>
       <c r="J89" t="s">
-        <v>388</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="B90" t="s">
-        <v>417</v>
+        <v>456</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
       <c r="F90">
-        <v>-7.8388369999999998</v>
+        <v>-7.7827909999999996</v>
       </c>
       <c r="G90">
-        <v>110.36550099999999</v>
+        <v>110.37655700000001</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="J90" t="s">
-        <v>256</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>419</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>420</v>
+        <v>113</v>
+      </c>
+      <c r="C91" t="s">
+        <v>114</v>
+      </c>
+      <c r="D91" t="s">
+        <v>115</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="F91">
-        <v>-7.8933790000000004</v>
+        <v>-7.7807880000000003</v>
       </c>
       <c r="G91">
-        <v>110.33867600000001</v>
+        <v>110.375</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>421</v>
+        <v>116</v>
       </c>
       <c r="J91" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>422</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
+        <v>157</v>
+      </c>
+      <c r="C92" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" t="s">
+        <v>159</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="F92">
-        <v>-7.8948780000000003</v>
+        <v>-7.7772370000000004</v>
       </c>
       <c r="G92">
-        <v>110.350206</v>
+        <v>110.376169</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>424</v>
+        <v>160</v>
       </c>
       <c r="J92" t="s">
-        <v>295</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B93" t="s">
-        <v>426</v>
-      </c>
-      <c r="E93">
-        <v>4.7</v>
+        <v>406</v>
       </c>
       <c r="F93">
-        <v>-7.8111990000000002</v>
+        <v>-7.7769510000000004</v>
       </c>
       <c r="G93">
-        <v>110.401938</v>
+        <v>110.39887899999999</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>427</v>
-      </c>
-      <c r="J93" t="s">
-        <v>38</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="B94" t="s">
-        <v>429</v>
+        <v>514</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
       </c>
       <c r="D94" t="s">
-        <v>430</v>
-      </c>
-      <c r="E94">
-        <v>4.5999999999999996</v>
+        <v>515</v>
       </c>
       <c r="F94">
-        <v>-7.7889470000000003</v>
+        <v>-7.7768439999999996</v>
       </c>
       <c r="G94">
-        <v>110.48254</v>
+        <v>110.376347</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>431</v>
-      </c>
-      <c r="J94" t="s">
-        <v>412</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>434</v>
+        <v>194</v>
       </c>
       <c r="D95" t="s">
-        <v>435</v>
+        <v>195</v>
       </c>
       <c r="E95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="F95">
-        <v>-7.807455</v>
+        <v>-7.7766510000000002</v>
       </c>
       <c r="G95">
-        <v>110.36935099999999</v>
+        <v>110.459023</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>436</v>
+        <v>196</v>
       </c>
       <c r="J95" t="s">
-        <v>437</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>438</v>
+        <v>224</v>
       </c>
       <c r="B96" t="s">
-        <v>439</v>
+        <v>225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" t="s">
+        <v>227</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="F96">
-        <v>-7.8313600000000001</v>
+        <v>-7.7721600000000004</v>
       </c>
       <c r="G96">
-        <v>110.458585</v>
+        <v>110.466759</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>440</v>
+        <v>228</v>
       </c>
       <c r="J96" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>441</v>
+        <v>323</v>
       </c>
       <c r="B97" t="s">
-        <v>442</v>
-      </c>
-      <c r="C97" t="s">
-        <v>91</v>
+        <v>324</v>
+      </c>
+      <c r="D97" t="s">
+        <v>325</v>
       </c>
       <c r="E97">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F97">
-        <v>-7.7575589999999996</v>
+        <v>-7.7714420000000004</v>
       </c>
       <c r="G97">
-        <v>110.403564</v>
+        <v>110.415705</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>443</v>
+        <v>326</v>
       </c>
       <c r="J97" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>444</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>445</v>
+        <v>177</v>
+      </c>
+      <c r="C98" t="s">
+        <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="E98">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="F98">
-        <v>-7.8390399999999998</v>
+        <v>-7.7709609999999998</v>
       </c>
       <c r="G98">
-        <v>110.33489400000001</v>
+        <v>110.41579</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>447</v>
+        <v>180</v>
       </c>
       <c r="J98" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B99" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" t="s">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="F99">
-        <v>-7.8009950000000003</v>
+        <v>-7.7705060000000001</v>
       </c>
       <c r="G99">
-        <v>110.39178200000001</v>
+        <v>110.371576</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J99" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>452</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>453</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>172</v>
+      </c>
+      <c r="D100" t="s">
+        <v>173</v>
       </c>
       <c r="E100">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F100">
-        <v>-7.7705060000000001</v>
+        <v>-7.7702540000000004</v>
       </c>
       <c r="G100">
-        <v>110.371576</v>
+        <v>110.432773</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>454</v>
+        <v>174</v>
       </c>
       <c r="J100" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>455</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
-        <v>456</v>
+        <v>286</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F101">
-        <v>-7.7827909999999996</v>
+        <v>-7.770086</v>
       </c>
       <c r="G101">
-        <v>110.37655700000001</v>
+        <v>110.371748</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>457</v>
+        <v>287</v>
       </c>
       <c r="J101" t="s">
-        <v>412</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="B102" t="s">
-        <v>459</v>
+        <v>500</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
       </c>
       <c r="F102">
-        <v>-7.8753849999999996</v>
+        <v>-7.7690640000000002</v>
       </c>
       <c r="G102">
-        <v>110.426209</v>
+        <v>110.372432</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>460</v>
+        <v>501</v>
+      </c>
+      <c r="J102" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>461</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>462</v>
+        <v>40</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" t="s">
+        <v>42</v>
       </c>
       <c r="E103">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="F103">
-        <v>-7.8086279999999997</v>
+        <v>-7.7686159999999997</v>
       </c>
       <c r="G103">
-        <v>110.34996</v>
+        <v>110.373474</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
       <c r="B104" t="s">
-        <v>465</v>
+        <v>346</v>
+      </c>
+      <c r="D104" t="s">
+        <v>347</v>
       </c>
       <c r="E104">
-        <v>4.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="F104">
-        <v>-7.8930959999999999</v>
+        <v>-7.76816</v>
       </c>
       <c r="G104">
-        <v>110.33879</v>
+        <v>110.38359199999999</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>466</v>
+        <v>348</v>
       </c>
       <c r="J104" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>467</v>
+        <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>468</v>
+        <v>204</v>
+      </c>
+      <c r="C105" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" t="s">
+        <v>206</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F105">
-        <v>-7.7990060000000003</v>
+        <v>-7.7662120000000003</v>
       </c>
       <c r="G105">
-        <v>110.35204899999999</v>
+        <v>110.471824</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>469</v>
+        <v>207</v>
       </c>
       <c r="J105" t="s">
-        <v>298</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
       <c r="B106" t="s">
-        <v>471</v>
+        <v>315</v>
+      </c>
+      <c r="C106" t="s">
+        <v>316</v>
+      </c>
+      <c r="D106" t="s">
+        <v>317</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>-7.8036589999999997</v>
+        <v>-7.7628579999999996</v>
       </c>
       <c r="G106">
-        <v>110.348017</v>
+        <v>110.434479</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>472</v>
+        <v>318</v>
+      </c>
+      <c r="J106" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>473</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
-        <v>474</v>
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
+        <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>475</v>
+        <v>53</v>
+      </c>
+      <c r="E107">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F107">
-        <v>-7.8846109999999996</v>
+        <v>-7.7625840000000004</v>
       </c>
       <c r="G107">
-        <v>110.33411099999999</v>
+        <v>110.33676</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>476</v>
+        <v>54</v>
+      </c>
+      <c r="J107" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="B108" t="s">
-        <v>478</v>
-      </c>
-      <c r="D108" t="s">
-        <v>479</v>
+        <v>442</v>
+      </c>
+      <c r="C108" t="s">
+        <v>91</v>
       </c>
       <c r="E108">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="F108">
-        <v>-7.8148790000000004</v>
+        <v>-7.7575589999999996</v>
       </c>
       <c r="G108">
-        <v>110.469365</v>
+        <v>110.403564</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="J108" t="s">
-        <v>412</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>481</v>
+        <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>482</v>
+        <v>90</v>
+      </c>
+      <c r="C109" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" t="s">
+        <v>92</v>
       </c>
       <c r="E109">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F109">
-        <v>-7.8740119999999996</v>
+        <v>-7.7575570000000003</v>
       </c>
       <c r="G109">
-        <v>110.374437</v>
+        <v>110.403572</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>483</v>
+        <v>93</v>
       </c>
       <c r="J109" t="s">
-        <v>388</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>484</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>485</v>
+        <v>134</v>
+      </c>
+      <c r="C110" t="s">
+        <v>35</v>
       </c>
       <c r="D110" t="s">
-        <v>486</v>
+        <v>135</v>
+      </c>
+      <c r="E110">
+        <v>4.2</v>
       </c>
       <c r="F110">
-        <v>-7.8021599999999998</v>
+        <v>-7.7547750000000004</v>
       </c>
       <c r="G110">
-        <v>110.389697</v>
+        <v>110.242617</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>487</v>
+        <v>136</v>
+      </c>
+      <c r="J110" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>488</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>489</v>
+        <v>147</v>
       </c>
       <c r="C111" t="s">
-        <v>490</v>
+        <v>148</v>
       </c>
       <c r="D111" t="s">
-        <v>491</v>
+        <v>149</v>
       </c>
       <c r="E111">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="F111">
-        <v>-7.4855520000000002</v>
+        <v>-7.7544329999999997</v>
       </c>
       <c r="G111">
-        <v>110.218137</v>
+        <v>110.405745</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>492</v>
+        <v>150</v>
       </c>
       <c r="J111" t="s">
         <v>77</v>
@@ -5236,198 +5173,264 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>493</v>
+        <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>364</v>
+        <v>142</v>
+      </c>
+      <c r="C112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112">
+        <v>4.3</v>
       </c>
       <c r="F112">
-        <v>-7.7835320000000001</v>
+        <v>-7.7471319999999997</v>
       </c>
       <c r="G112">
-        <v>110.37688799999999</v>
+        <v>110.42507500000001</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>494</v>
+        <v>145</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>496</v>
+        <v>152</v>
+      </c>
+      <c r="C113" t="s">
+        <v>153</v>
       </c>
       <c r="D113" t="s">
-        <v>497</v>
+        <v>154</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F113">
-        <v>-7.8366420000000003</v>
+        <v>-7.7438250000000002</v>
       </c>
       <c r="G113">
-        <v>110.474355</v>
+        <v>110.350286</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>498</v>
+        <v>155</v>
       </c>
       <c r="J113" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>499</v>
+        <v>78</v>
       </c>
       <c r="B114" t="s">
-        <v>500</v>
+        <v>79</v>
+      </c>
+      <c r="C114" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" t="s">
+        <v>81</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="F114">
-        <v>-7.7690640000000002</v>
+        <v>-7.7142369999999998</v>
       </c>
       <c r="G114">
-        <v>110.372432</v>
+        <v>110.44814</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>502</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>503</v>
+        <v>118</v>
+      </c>
+      <c r="C115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115">
+        <v>4.2</v>
       </c>
       <c r="F115">
-        <v>-7.906765</v>
+        <v>-7.6868790000000002</v>
       </c>
       <c r="G115">
-        <v>110.319002</v>
+        <v>110.341898</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>504</v>
+        <v>121</v>
+      </c>
+      <c r="J115" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>505</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>506</v>
+        <v>230</v>
+      </c>
+      <c r="C116" t="s">
+        <v>231</v>
+      </c>
+      <c r="D116" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116">
+        <v>3.9</v>
       </c>
       <c r="F116">
-        <v>-7.8261219999999998</v>
+        <v>-7.6616309999999999</v>
       </c>
       <c r="G116">
-        <v>110.377416</v>
+        <v>110.421116</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>507</v>
+        <v>233</v>
+      </c>
+      <c r="J116" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>508</v>
+        <v>339</v>
       </c>
       <c r="B117" t="s">
-        <v>509</v>
+        <v>340</v>
       </c>
       <c r="C117" t="s">
-        <v>510</v>
+        <v>341</v>
       </c>
       <c r="D117" t="s">
-        <v>511</v>
+        <v>342</v>
       </c>
       <c r="E117">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="F117">
-        <v>-7.4678149999999999</v>
+        <v>-7.536124</v>
       </c>
       <c r="G117">
-        <v>110.22608</v>
+        <v>110.234121</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>512</v>
+        <v>343</v>
       </c>
       <c r="J117" t="s">
-        <v>21</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="B118" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>490</v>
       </c>
       <c r="D118" t="s">
-        <v>515</v>
+        <v>491</v>
+      </c>
+      <c r="E118">
+        <v>4.3</v>
       </c>
       <c r="F118">
-        <v>-7.7768439999999996</v>
+        <v>-7.4855520000000002</v>
       </c>
       <c r="G118">
-        <v>110.376347</v>
+        <v>110.218137</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>516</v>
+        <v>492</v>
+      </c>
+      <c r="J118" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B119" t="s">
-        <v>518</v>
+        <v>509</v>
+      </c>
+      <c r="C119" t="s">
+        <v>510</v>
+      </c>
+      <c r="D119" t="s">
+        <v>511</v>
+      </c>
+      <c r="E119">
+        <v>3.9</v>
       </c>
       <c r="F119">
-        <v>-7.8918980000000003</v>
+        <v>-7.4678149999999999</v>
       </c>
       <c r="G119">
-        <v>110.338244</v>
+        <v>110.22608</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>519</v>
+        <v>512</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J119">
+    <sortCondition ref="F1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>